--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6559766666666667</v>
+        <v>0.8908616666666668</v>
       </c>
       <c r="N2">
-        <v>1.96793</v>
+        <v>2.672585</v>
       </c>
       <c r="O2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="P2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
       <c r="Q2">
-        <v>6.844620160988889</v>
+        <v>9.29546740633889</v>
       </c>
       <c r="R2">
-        <v>61.60158144889999</v>
+        <v>83.65920665704999</v>
       </c>
       <c r="S2">
-        <v>0.02990937788416916</v>
+        <v>0.03961156430308091</v>
       </c>
       <c r="T2">
-        <v>0.02990937788416917</v>
+        <v>0.03961156430308091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.81477433333334</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N3">
         <v>50.444323</v>
       </c>
       <c r="O3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="P3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
       <c r="Q3">
         <v>175.4494469890878</v>
@@ -635,10 +635,10 @@
         <v>1579.04502290179</v>
       </c>
       <c r="S3">
-        <v>0.7666727570178238</v>
+        <v>0.7476576214563364</v>
       </c>
       <c r="T3">
-        <v>0.7666727570178239</v>
+        <v>0.7476576214563364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.232341666666667</v>
+        <v>3.879966</v>
       </c>
       <c r="N4">
-        <v>9.697025</v>
+        <v>11.639898</v>
       </c>
       <c r="O4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="P4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="Q4">
-        <v>33.72703948647222</v>
+        <v>40.48450936906</v>
       </c>
       <c r="R4">
-        <v>303.5433553782499</v>
+        <v>364.36058432154</v>
       </c>
       <c r="S4">
-        <v>0.1473792183041244</v>
+        <v>0.1725200762962835</v>
       </c>
       <c r="T4">
-        <v>0.1473792183041244</v>
+        <v>0.1725200762962835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5954103333333333</v>
+        <v>0.2545846666666667</v>
       </c>
       <c r="N5">
-        <v>1.786231</v>
+        <v>0.763754</v>
       </c>
       <c r="O5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="P5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="Q5">
-        <v>6.21265630118111</v>
+        <v>2.656398360935555</v>
       </c>
       <c r="R5">
-        <v>55.91390671062999</v>
+        <v>23.90758524842</v>
       </c>
       <c r="S5">
-        <v>0.02714784467304089</v>
+        <v>0.01131993582345753</v>
       </c>
       <c r="T5">
-        <v>0.0271478446730409</v>
+        <v>0.01131993582345753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6559766666666667</v>
+        <v>0.8908616666666668</v>
       </c>
       <c r="N6">
-        <v>1.96793</v>
+        <v>2.672585</v>
       </c>
       <c r="O6">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="P6">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
       <c r="Q6">
-        <v>0.20362958882</v>
+        <v>0.27654306029</v>
       </c>
       <c r="R6">
-        <v>1.83266629938</v>
+        <v>2.48888754261</v>
       </c>
       <c r="S6">
-        <v>0.0008898133391138306</v>
+        <v>0.001178456417132721</v>
       </c>
       <c r="T6">
-        <v>0.0008898133391138308</v>
+        <v>0.001178456417132721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.81477433333334</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N7">
         <v>50.444323</v>
       </c>
       <c r="O7">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="P7">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
       <c r="Q7">
-        <v>5.219675878102001</v>
+        <v>5.219675878102</v>
       </c>
       <c r="R7">
-        <v>46.977082902918</v>
+        <v>46.97708290291799</v>
       </c>
       <c r="S7">
-        <v>0.02280875411623717</v>
+        <v>0.02224304789081197</v>
       </c>
       <c r="T7">
-        <v>0.02280875411623717</v>
+        <v>0.02224304789081197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.232341666666667</v>
+        <v>3.879966</v>
       </c>
       <c r="N8">
-        <v>9.697025</v>
+        <v>11.639898</v>
       </c>
       <c r="O8">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="P8">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="Q8">
-        <v>1.00338996485</v>
+        <v>1.204426805652</v>
       </c>
       <c r="R8">
-        <v>9.030509683649999</v>
+        <v>10.839841250868</v>
       </c>
       <c r="S8">
-        <v>0.004384577802421983</v>
+        <v>0.005132526184525591</v>
       </c>
       <c r="T8">
-        <v>0.004384577802421985</v>
+        <v>0.00513252618452559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5954103333333333</v>
+        <v>0.2545846666666667</v>
       </c>
       <c r="N9">
-        <v>1.786231</v>
+        <v>0.763754</v>
       </c>
       <c r="O9">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="P9">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="Q9">
-        <v>0.184828466494</v>
+        <v>0.079028681396</v>
       </c>
       <c r="R9">
-        <v>1.663456198446</v>
+        <v>0.7112581325639999</v>
       </c>
       <c r="S9">
-        <v>0.0008076568630686238</v>
+        <v>0.0003367716283713275</v>
       </c>
       <c r="T9">
-        <v>0.0008076568630686239</v>
+        <v>0.0003367716283713275</v>
       </c>
     </row>
   </sheetData>
